--- a/Bitacora_Etapa_Productiva_semana DOCE.xlsx
+++ b/Bitacora_Etapa_Productiva_semana DOCE.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>SERVICIO NACIONAL DE APRENDIZAJE SENA</t>
   </si>
@@ -160,9 +160,6 @@
     <t xml:space="preserve">4. OBSERVACIONES </t>
   </si>
   <si>
-    <t xml:space="preserve">Concepto empresa sobre el desempeño del aprendiz </t>
-  </si>
-  <si>
     <t>Instructor responsable</t>
   </si>
   <si>
@@ -238,9 +235,6 @@
     <t>ANALISIS Y DESARROLLO DE SISTEMAS DE  INFORMACIÓN</t>
   </si>
   <si>
-    <t>CEDULA</t>
-  </si>
-  <si>
     <t>GUSTAVO JIMENEZ</t>
   </si>
   <si>
@@ -268,12 +262,7 @@
     <t>Cundinamarca</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
+    <t>Se validaron algunos ajustes de Asignación y se quitaron el vista el cronometro, se desarrollo el id de dato null en la base de datos.</t>
   </si>
   <si>
     <r>
@@ -293,11 +282,29 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>se inicio con la actualización de la plataforma, y se hizo refinamiento del poryecto, con ello se comenzo a trabajar con asiganción de ID, según la unidad en la que este el usuario.</t>
+      <t>se inicio con la actualización de la plataforma, y se hizo refinamiento del poryecto, con ello se comenzo a trabajar con asiganción de ID, según la unidad en la que este el usuario y se ajustaron las vistas para validacion con, se comenzo a trabjar en seguridad de archivos.</t>
     </r>
   </si>
   <si>
-    <t>Se validaron algunos ajustes de Asignación y se quitaron el vista el cronometro, se desarrollo el id de dato null en la base de datos.</t>
+    <t xml:space="preserve">220501033/ DISEÑAR EL SISTEMA DE ACUERDO CON LOS REQUISITOS DEL CLIENTE.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISEÑAR LA ARQUITECTURA DEL SOFTWARE, MEDIANTE LA INTERPRETACIÓN DE LASCLASES, OBJETOS Y MECANISMOS DE COLABORACIÓN, UTILIZANDO HERRAMIENTASTECNOLÓGICAS DE DISEÑO, DE ACUERDO CON LAS TENDENCIAS DE LASTECNOLOGÍAS DE LA INFORMACIÓN Y LA COMUNICACIÓN. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISEÑAR LA ESTRUCTURA DE DATOS, A PARTIR DEL MODELO CONCEPTUALDETERMINADO EN EL ANÁLISIS DEL SISTEMA, UTILIZANDO HERRAMIENTASTECNOLÓGICAS DE BASES DE DATOS, SEGÚN LAS NORMAS Y ESTÁNDARESESTABLECIDOS
+</t>
+  </si>
+  <si>
+    <t>Concepto empresa sobre el desempeño del aprendiz : Excelente Rendimiento en la entrega.</t>
+  </si>
+  <si>
+    <t>Programming Backend</t>
+  </si>
+  <si>
+    <t>Tauramena/Casanare</t>
   </si>
 </sst>
 </file>
@@ -1515,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38:N38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1596,7 +1603,7 @@
       <c r="B3" s="117"/>
       <c r="C3" s="118"/>
       <c r="D3" s="127" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="128"/>
       <c r="F3" s="128"/>
@@ -1784,7 +1791,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="34"/>
       <c r="E10" s="97" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="98"/>
       <c r="G10" s="98"/>
@@ -1797,7 +1804,7 @@
       <c r="N10" s="98"/>
       <c r="O10" s="99"/>
       <c r="P10" s="96" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="96"/>
       <c r="R10" s="96"/>
@@ -1808,7 +1815,7 @@
         <v>20</v>
       </c>
       <c r="U10" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V10" s="51">
         <v>2019</v>
@@ -1860,7 +1867,7 @@
         <v>8</v>
       </c>
       <c r="L12" s="100" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="M12" s="101"/>
       <c r="N12" s="101"/>
@@ -1872,10 +1879,10 @@
         <v>12</v>
       </c>
       <c r="T12" s="51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U12" s="51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V12" s="51">
         <v>2019</v>
@@ -1915,7 +1922,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="106" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" s="107"/>
       <c r="G14" s="107"/>
@@ -1931,7 +1938,7 @@
         <v>6</v>
       </c>
       <c r="O14" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P14" s="53">
         <v>2018</v>
@@ -1945,7 +1952,7 @@
         <v>6</v>
       </c>
       <c r="U14" s="51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V14" s="51">
         <v>2019</v>
@@ -1985,7 +1992,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="138" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16" s="139"/>
       <c r="G16" s="139"/>
@@ -2048,20 +2055,20 @@
       <c r="F18" s="58"/>
       <c r="G18" s="58"/>
       <c r="H18" s="65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="66"/>
       <c r="J18" s="59"/>
       <c r="K18" s="60"/>
       <c r="L18" s="61"/>
       <c r="M18" s="62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N18" s="63"/>
       <c r="O18" s="63"/>
       <c r="P18" s="64"/>
       <c r="Q18" s="58" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R18" s="58"/>
       <c r="S18" s="58"/>
@@ -2232,7 +2239,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="115" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G25" s="107"/>
       <c r="H25" s="107"/>
@@ -2286,7 +2293,7 @@
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="115" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E27" s="107"/>
       <c r="F27" s="107"/>
@@ -2299,7 +2306,7 @@
         <v>20</v>
       </c>
       <c r="M27" s="58" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N27" s="58"/>
       <c r="O27" s="58"/>
@@ -2309,7 +2316,7 @@
       </c>
       <c r="R27" s="49"/>
       <c r="S27" s="58" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="T27" s="58"/>
       <c r="U27" s="58"/>
@@ -2348,7 +2355,7 @@
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="115" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E29" s="107"/>
       <c r="F29" s="107"/>
@@ -2360,7 +2367,7 @@
       </c>
       <c r="K29" s="63"/>
       <c r="L29" s="115" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M29" s="107"/>
       <c r="N29" s="107"/>
@@ -2369,7 +2376,9 @@
       <c r="Q29" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="115"/>
+      <c r="R29" s="115" t="s">
+        <v>73</v>
+      </c>
       <c r="S29" s="107"/>
       <c r="T29" s="107"/>
       <c r="U29" s="107"/>
@@ -2405,7 +2414,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="106" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D31" s="107"/>
       <c r="E31" s="107"/>
@@ -2413,14 +2422,14 @@
       <c r="G31" s="107"/>
       <c r="H31" s="108"/>
       <c r="I31" s="113" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J31" s="114"/>
       <c r="K31" s="36" t="s">
         <v>27</v>
       </c>
       <c r="L31" s="112" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M31" s="112"/>
       <c r="N31" s="112"/>
@@ -2540,7 +2549,7 @@
     </row>
     <row r="36" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" s="68"/>
       <c r="D36" s="68"/>
@@ -2557,13 +2566,13 @@
       <c r="M36" s="68"/>
       <c r="N36" s="79"/>
       <c r="O36" s="82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P36" s="82"/>
       <c r="Q36" s="82"/>
       <c r="R36" s="82"/>
       <c r="S36" s="84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T36" s="85"/>
       <c r="U36" s="85"/>
@@ -2600,13 +2609,13 @@
     </row>
     <row r="38" spans="1:24" s="4" customFormat="1" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="73" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C38" s="74"/>
       <c r="D38" s="74"/>
       <c r="E38" s="75"/>
       <c r="F38" s="76" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G38" s="77"/>
       <c r="H38" s="77"/>
@@ -2631,12 +2640,14 @@
       <c r="W38" s="23"/>
     </row>
     <row r="39" spans="1:24" s="4" customFormat="1" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="73"/>
+      <c r="B39" s="73" t="s">
+        <v>71</v>
+      </c>
       <c r="C39" s="74"/>
       <c r="D39" s="74"/>
       <c r="E39" s="75"/>
       <c r="F39" s="76" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G39" s="77"/>
       <c r="H39" s="77"/>
@@ -2647,11 +2658,11 @@
       <c r="M39" s="77"/>
       <c r="N39" s="81"/>
       <c r="O39" s="91">
-        <v>43566</v>
+        <v>43580</v>
       </c>
       <c r="P39" s="92"/>
       <c r="Q39" s="91">
-        <v>43574</v>
+        <v>43588</v>
       </c>
       <c r="R39" s="92"/>
       <c r="S39" s="93"/>
@@ -2764,7 +2775,7 @@
     </row>
     <row r="44" spans="1:24" s="4" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="55" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C44" s="56"/>
       <c r="D44" s="56"/>
@@ -2970,13 +2981,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2984,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>2014</v>
@@ -2995,7 +3006,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>2015</v>
@@ -3006,7 +3017,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>2016</v>
@@ -3017,7 +3028,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>2017</v>
@@ -3028,7 +3039,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>2018</v>
@@ -3039,7 +3050,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3047,7 +3058,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3055,7 +3066,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3063,7 +3074,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3071,7 +3082,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3079,7 +3090,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3087,7 +3098,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
